--- a/cpun confirmed mint names.xlsx
+++ b/cpun confirmed mint names.xlsx
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>川陝省造幣廠</t>
+          <t>通江造幣廠</t>
         </is>
       </c>
     </row>
